--- a/vedois/professores (importar)/Prof 18_horarios.xlsx
+++ b/vedois/professores (importar)/Prof 18_horarios.xlsx
@@ -733,9 +733,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Algoritmos e Estrutura de Dados II (CCO - 3º período)</t>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -750,9 +750,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Algoritmos e Estrutura de Dados II (CCO - 3º período)</t>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -767,9 +767,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Algoritmos e Estrutura de Dados II (CCO - 3º período)</t>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -784,9 +784,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Algoritmos e Estrutura de Dados II (CCO - 3º período)</t>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -937,9 +937,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>Banco de Dados II (SIN - 5º período)</t>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -954,9 +954,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>Banco de Dados II (SIN - 5º período)</t>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -1243,9 +1243,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Algoritmos e Estrutura de Dados II (CCO - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1260,9 +1260,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>Algoritmos e Estrutura de Dados II (CCO - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1277,9 +1277,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Algoritmos e Estrutura de Dados II (CCO - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1294,9 +1294,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Algoritmos e Estrutura de Dados II (CCO - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1702,9 +1702,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>Banco de Dados II (SIN - 5º período)</t>
         </is>
       </c>
     </row>
@@ -1719,9 +1719,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>Banco de Dados II (SIN - 5º período)</t>
         </is>
       </c>
     </row>
